--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.29</v>
@@ -3099,7 +3099,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR12" t="n">
         <v>2.7</v>
@@ -3753,7 +3753,7 @@
         <v>3</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR15" t="n">
         <v>2.26</v>
@@ -4407,7 +4407,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.33</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ20" t="n">
         <v>2.17</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ21" t="n">
         <v>2.17</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -5715,7 +5715,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR24" t="n">
         <v>1.02</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -7023,7 +7023,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR30" t="n">
         <v>1.86</v>
@@ -7456,7 +7456,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.29</v>
@@ -8113,7 +8113,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR35" t="n">
         <v>0.93</v>
@@ -8331,7 +8331,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR36" t="n">
         <v>1.32</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ37" t="n">
         <v>1</v>
@@ -8982,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.29</v>
@@ -9200,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.17</v>
@@ -10729,7 +10729,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR47" t="n">
         <v>1.32</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.29</v>
@@ -11601,7 +11601,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR51" t="n">
         <v>1.2</v>
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ52" t="n">
         <v>1</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ53" t="n">
         <v>1</v>
@@ -12255,7 +12255,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR54" t="n">
         <v>1.65</v>
@@ -14435,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR64" t="n">
         <v>0.92</v>
@@ -14650,7 +14650,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ65" t="n">
         <v>2.17</v>
@@ -14871,7 +14871,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR66" t="n">
         <v>1.86</v>
@@ -15086,10 +15086,10 @@
         <v>0.25</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR67" t="n">
         <v>1.73</v>
@@ -15304,7 +15304,7 @@
         <v>1.75</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ68" t="n">
         <v>2.17</v>
@@ -17484,7 +17484,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.71</v>
@@ -17702,10 +17702,10 @@
         <v>0.2</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR79" t="n">
         <v>1.15</v>
@@ -17923,7 +17923,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR80" t="n">
         <v>1.62</v>
@@ -18141,7 +18141,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR81" t="n">
         <v>1.47</v>
@@ -18574,7 +18574,7 @@
         <v>2</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ83" t="n">
         <v>2.17</v>
@@ -20397,6 +20397,660 @@
       </c>
       <c r="BP91" t="n">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>8280479</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>46004.5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>14</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['42', '56', '61']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X92" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>8280592</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>46004.54166666666</v>
+      </c>
+      <c r="F93" t="n">
+        <v>14</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>3</v>
+      </c>
+      <c r="L93" t="n">
+        <v>3</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['16', '44', '45+4']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U93" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X93" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>8280575</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>46004.625</v>
+      </c>
+      <c r="F94" t="n">
+        <v>14</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V94" t="n">
+        <v>3</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X94" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>1.5</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1.71</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ4" t="n">
         <v>1</v>
@@ -2227,7 +2227,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.29</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.5</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ16" t="n">
         <v>1</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR17" t="n">
         <v>1</v>
@@ -4843,7 +4843,7 @@
         <v>2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR20" t="n">
         <v>1.51</v>
@@ -5061,7 +5061,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR26" t="n">
         <v>1.44</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR28" t="n">
         <v>1.76</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.14</v>
@@ -7241,7 +7241,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR31" t="n">
         <v>2.21</v>
@@ -7677,7 +7677,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR33" t="n">
         <v>1.1</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.33</v>
@@ -8110,7 +8110,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.71</v>
@@ -8767,7 +8767,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR38" t="n">
         <v>1.37</v>
@@ -9203,7 +9203,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR40" t="n">
         <v>0.87</v>
@@ -9421,7 +9421,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR41" t="n">
         <v>2.54</v>
@@ -9636,7 +9636,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ42" t="n">
         <v>1</v>
@@ -9857,7 +9857,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR43" t="n">
         <v>1.44</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.5</v>
@@ -10290,7 +10290,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ45" t="n">
         <v>1</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.33</v>
@@ -11165,7 +11165,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ49" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR49" t="n">
         <v>1.96</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.63</v>
@@ -12473,7 +12473,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR55" t="n">
         <v>2.22</v>
@@ -12691,7 +12691,7 @@
         <v>3</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR56" t="n">
         <v>2.61</v>
@@ -13124,7 +13124,7 @@
         <v>1.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.29</v>
@@ -13781,7 +13781,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR61" t="n">
         <v>1.12</v>
@@ -14432,7 +14432,7 @@
         <v>1.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.71</v>
@@ -14653,7 +14653,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR65" t="n">
         <v>1.2</v>
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.63</v>
@@ -15307,7 +15307,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ68" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR68" t="n">
         <v>1.07</v>
@@ -15522,10 +15522,10 @@
         <v>1.2</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR69" t="n">
         <v>1.29</v>
@@ -15740,10 +15740,10 @@
         <v>2.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ70" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR70" t="n">
         <v>1.72</v>
@@ -17487,7 +17487,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR78" t="n">
         <v>0.9399999999999999</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.71</v>
@@ -18138,7 +18138,7 @@
         <v>0.17</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.63</v>
@@ -18356,10 +18356,10 @@
         <v>2</v>
       </c>
       <c r="AP82" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ82" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR82" t="n">
         <v>0.97</v>
@@ -18577,7 +18577,7 @@
         <v>2</v>
       </c>
       <c r="AQ83" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR83" t="n">
         <v>1.78</v>
@@ -18792,10 +18792,10 @@
         <v>2</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR84" t="n">
         <v>1.54</v>
@@ -21051,6 +21051,878 @@
       </c>
       <c r="BP94" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>8280484</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>46005.52083333334</v>
+      </c>
+      <c r="F95" t="n">
+        <v>14</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="n">
+        <v>5</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['26', '34', '62', '65', '77']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>7</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X95" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>8280554</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>46005.54166666666</v>
+      </c>
+      <c r="F96" t="n">
+        <v>14</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>2</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['17', '90+6']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>7</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U96" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X96" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>8280486</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>46005.625</v>
+      </c>
+      <c r="F97" t="n">
+        <v>14</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S97" t="n">
+        <v>2</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X97" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>8280569</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>46005.66666666666</v>
+      </c>
+      <c r="F98" t="n">
+        <v>14</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>3</v>
+      </c>
+      <c r="L98" t="n">
+        <v>2</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="n">
+        <v>3</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['5', '22']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S98" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U98" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X98" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1002,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4226,7 +4226,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ18">
         <v>0.71</v>
@@ -5462,7 +5462,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>1.07</v>
@@ -7725,7 +7725,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ33">
         <v>1.86</v>
@@ -8552,7 +8552,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR37">
         <v>0.82</v>
@@ -10403,7 +10403,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ46">
         <v>1.29</v>
@@ -11848,7 +11848,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR53">
         <v>1.77</v>
@@ -13084,7 +13084,7 @@
         <v>3</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR59">
         <v>2.31</v>
@@ -13905,7 +13905,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -15553,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ71">
         <v>1.29</v>
@@ -16380,7 +16380,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR75">
         <v>1.87</v>
@@ -18849,7 +18849,7 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ87">
         <v>1.5</v>
@@ -19264,7 +19264,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR89">
         <v>2.01</v>
@@ -21194,6 +21194,212 @@
       </c>
       <c r="BP98">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>8280580</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>46011.45833333334</v>
+      </c>
+      <c r="F99">
+        <v>15</v>
+      </c>
+      <c r="G99" t="s">
+        <v>81</v>
+      </c>
+      <c r="H99" t="s">
+        <v>70</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>86</v>
+      </c>
+      <c r="P99" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q99">
+        <v>3.48</v>
+      </c>
+      <c r="R99">
+        <v>1.85</v>
+      </c>
+      <c r="S99">
+        <v>3.62</v>
+      </c>
+      <c r="T99">
+        <v>1.54</v>
+      </c>
+      <c r="U99">
+        <v>2.32</v>
+      </c>
+      <c r="V99">
+        <v>3.34</v>
+      </c>
+      <c r="W99">
+        <v>1.3</v>
+      </c>
+      <c r="X99">
+        <v>10</v>
+      </c>
+      <c r="Y99">
+        <v>1.01</v>
+      </c>
+      <c r="Z99">
+        <v>2.6</v>
+      </c>
+      <c r="AA99">
+        <v>3</v>
+      </c>
+      <c r="AB99">
+        <v>2.6</v>
+      </c>
+      <c r="AC99">
+        <v>1.08</v>
+      </c>
+      <c r="AD99">
+        <v>6.4</v>
+      </c>
+      <c r="AE99">
+        <v>1.44</v>
+      </c>
+      <c r="AF99">
+        <v>2.75</v>
+      </c>
+      <c r="AG99">
+        <v>2.38</v>
+      </c>
+      <c r="AH99">
+        <v>1.56</v>
+      </c>
+      <c r="AI99">
+        <v>1.96</v>
+      </c>
+      <c r="AJ99">
+        <v>1.68</v>
+      </c>
+      <c r="AK99">
+        <v>1.36</v>
+      </c>
+      <c r="AL99">
+        <v>1.45</v>
+      </c>
+      <c r="AM99">
+        <v>1.4</v>
+      </c>
+      <c r="AN99">
+        <v>1.33</v>
+      </c>
+      <c r="AO99">
+        <v>1</v>
+      </c>
+      <c r="AP99">
+        <v>1.14</v>
+      </c>
+      <c r="AQ99">
+        <v>1.25</v>
+      </c>
+      <c r="AR99">
+        <v>1.21</v>
+      </c>
+      <c r="AS99">
+        <v>1.2</v>
+      </c>
+      <c r="AT99">
+        <v>2.41</v>
+      </c>
+      <c r="AU99">
+        <v>4</v>
+      </c>
+      <c r="AV99">
+        <v>1</v>
+      </c>
+      <c r="AW99">
+        <v>3</v>
+      </c>
+      <c r="AX99">
+        <v>10</v>
+      </c>
+      <c r="AY99">
+        <v>7</v>
+      </c>
+      <c r="AZ99">
+        <v>11</v>
+      </c>
+      <c r="BA99">
+        <v>7</v>
+      </c>
+      <c r="BB99">
+        <v>3</v>
+      </c>
+      <c r="BC99">
+        <v>10</v>
+      </c>
+      <c r="BD99">
+        <v>2.05</v>
+      </c>
+      <c r="BE99">
+        <v>7.6</v>
+      </c>
+      <c r="BF99">
+        <v>2.1</v>
+      </c>
+      <c r="BG99">
+        <v>1.5</v>
+      </c>
+      <c r="BH99">
+        <v>2.41</v>
+      </c>
+      <c r="BI99">
+        <v>1.86</v>
+      </c>
+      <c r="BJ99">
+        <v>1.88</v>
+      </c>
+      <c r="BK99">
+        <v>2.8</v>
+      </c>
+      <c r="BL99">
+        <v>1.54</v>
+      </c>
+      <c r="BM99">
+        <v>3.16</v>
+      </c>
+      <c r="BN99">
+        <v>1.31</v>
+      </c>
+      <c r="BO99">
+        <v>4.23</v>
+      </c>
+      <c r="BP99">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.25</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ26" t="n">
         <v>2.29</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.5</v>
@@ -9854,7 +9854,7 @@
         <v>1.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ43" t="n">
         <v>2</v>
@@ -13560,7 +13560,7 @@
         <v>0.67</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.5</v>
@@ -17266,7 +17266,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ77" t="n">
         <v>1</v>
@@ -19664,7 +19664,7 @@
         <v>1.4</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.33</v>
@@ -22577,6 +22577,224 @@
       </c>
       <c r="BP101" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>8280563</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>46012.52083333334</v>
+      </c>
+      <c r="F102" t="n">
+        <v>15</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S102" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V102" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X102" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.14</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.71</v>
@@ -2445,7 +2445,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.63</v>
@@ -3314,7 +3314,7 @@
         <v>3</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ13" t="n">
         <v>1</v>
@@ -4625,7 +4625,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.13</v>
@@ -6369,7 +6369,7 @@
         <v>2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR27" t="n">
         <v>1.42</v>
@@ -7238,7 +7238,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.5</v>
@@ -7895,7 +7895,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR34" t="n">
         <v>0.9</v>
@@ -9418,7 +9418,7 @@
         <v>2</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ41" t="n">
         <v>2</v>
@@ -10293,7 +10293,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR45" t="n">
         <v>0.84</v>
@@ -10947,7 +10947,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR48" t="n">
         <v>2.01</v>
@@ -11162,7 +11162,7 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.86</v>
@@ -12470,7 +12470,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.5</v>
@@ -12909,7 +12909,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR57" t="n">
         <v>1.32</v>
@@ -13996,7 +13996,7 @@
         <v>1.25</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.13</v>
@@ -14217,7 +14217,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR63" t="n">
         <v>1.09</v>
@@ -16397,7 +16397,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR73" t="n">
         <v>1.03</v>
@@ -16612,7 +16612,7 @@
         <v>1.6</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.25</v>
@@ -16830,7 +16830,7 @@
         <v>1.4</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.25</v>
@@ -17269,7 +17269,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR77" t="n">
         <v>1.29</v>
@@ -19013,7 +19013,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR85" t="n">
         <v>2.23</v>
@@ -19667,7 +19667,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR88" t="n">
         <v>1.39</v>
@@ -19882,7 +19882,7 @@
         <v>1.17</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.25</v>
@@ -20100,7 +20100,7 @@
         <v>1.17</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ90" t="n">
         <v>1</v>
@@ -22795,6 +22795,442 @@
       </c>
       <c r="BP102" t="n">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>8280487</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>46012.60416666666</v>
+      </c>
+      <c r="F103" t="n">
+        <v>15</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['39', '53']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="V103" t="n">
+        <v>3</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X103" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>8280472</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>46012.66666666666</v>
+      </c>
+      <c r="F104" t="n">
+        <v>15</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>2</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['54', '67']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S104" t="n">
+        <v>10</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U104" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X104" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>21</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP104"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.86</v>
@@ -3535,7 +3535,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ23" t="n">
         <v>1</v>
@@ -6805,7 +6805,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR29" t="n">
         <v>2.89</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.63</v>
@@ -10075,7 +10075,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR44" t="n">
         <v>1.23</v>
@@ -11598,7 +11598,7 @@
         <v>0.67</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.71</v>
@@ -13563,7 +13563,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR60" t="n">
         <v>1.21</v>
@@ -13778,7 +13778,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.86</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.14</v>
@@ -17051,7 +17051,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR76" t="n">
         <v>1.1</v>
@@ -19449,7 +19449,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR87" t="n">
         <v>1.3</v>
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.13</v>
@@ -23231,6 +23231,224 @@
       </c>
       <c r="BP104" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>8280593</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>46013.54166666666</v>
+      </c>
+      <c r="F105" t="n">
+        <v>15</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['57', '89']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S105" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V105" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X105" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -9775,7 +9775,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>['2', '45']</t>
+          <t>['1', '45']</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -10429,7 +10429,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>['45+3', '86']</t>
+          <t>['45+2', '86']</t>
         </is>
       </c>
       <c r="Q46" t="n">

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1791,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.14</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.25</v>
@@ -8113,7 +8113,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR35" t="n">
         <v>0.93</v>
@@ -9200,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.29</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.13</v>
@@ -11601,7 +11601,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR51" t="n">
         <v>1.2</v>
@@ -14435,7 +14435,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR64" t="n">
         <v>0.92</v>
@@ -14650,7 +14650,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ65" t="n">
         <v>2</v>
@@ -17702,7 +17702,7 @@
         <v>0.2</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.14</v>
@@ -17923,7 +17923,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR80" t="n">
         <v>1.62</v>
@@ -20539,7 +20539,7 @@
         <v>2</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR92" t="n">
         <v>1.71</v>
@@ -20972,7 +20972,7 @@
         <v>0.57</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.63</v>
@@ -23449,6 +23449,224 @@
       </c>
       <c r="BP105" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>8280533</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>46032.5</v>
+      </c>
+      <c r="F106" t="n">
+        <v>16</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X106" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ4" t="n">
         <v>1</v>
@@ -2227,7 +2227,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.25</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.5</v>
@@ -5061,7 +5061,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR28" t="n">
         <v>1.76</v>
@@ -7677,7 +7677,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR33" t="n">
         <v>1.1</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.14</v>
@@ -8110,7 +8110,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.75</v>
@@ -9421,7 +9421,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR41" t="n">
         <v>2.54</v>
@@ -9857,7 +9857,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR43" t="n">
         <v>1.44</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.71</v>
@@ -10290,7 +10290,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.86</v>
@@ -11165,7 +11165,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR49" t="n">
         <v>1.96</v>
@@ -13124,7 +13124,7 @@
         <v>1.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.25</v>
@@ -13781,7 +13781,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR61" t="n">
         <v>1.12</v>
@@ -14432,7 +14432,7 @@
         <v>1.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.75</v>
@@ -14653,7 +14653,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR65" t="n">
         <v>1.2</v>
@@ -15522,7 +15522,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.5</v>
@@ -15743,7 +15743,7 @@
         <v>2</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR70" t="n">
         <v>1.72</v>
@@ -18138,7 +18138,7 @@
         <v>0.17</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.63</v>
@@ -18356,10 +18356,10 @@
         <v>2</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ82" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR82" t="n">
         <v>0.97</v>
@@ -18577,7 +18577,7 @@
         <v>2</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR83" t="n">
         <v>1.78</v>
@@ -21190,7 +21190,7 @@
         <v>2.17</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ95" t="n">
         <v>2.29</v>
@@ -21408,10 +21408,10 @@
         <v>2.17</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR96" t="n">
         <v>1.44</v>
@@ -21629,7 +21629,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ97" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR97" t="n">
         <v>1.69</v>
@@ -23667,6 +23667,442 @@
       </c>
       <c r="BP106" t="n">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>8280490</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>46032.60416666666</v>
+      </c>
+      <c r="F107" t="n">
+        <v>16</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2</v>
+      </c>
+      <c r="N107" t="n">
+        <v>2</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['35', '56']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S107" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U107" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="V107" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X107" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>8280469</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>46032.60416666666</v>
+      </c>
+      <c r="F108" t="n">
+        <v>16</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2</v>
+      </c>
+      <c r="K108" t="n">
+        <v>2</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['26', '45+1', '57']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S108" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U108" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V108" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X108" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP108"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.25</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.13</v>
@@ -3099,7 +3099,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR12" t="n">
         <v>2.7</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.71</v>
@@ -3753,7 +3753,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR15" t="n">
         <v>2.26</v>
@@ -4189,7 +4189,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR17" t="n">
         <v>1</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR20" t="n">
         <v>1.51</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ21" t="n">
         <v>2</v>
@@ -5715,7 +5715,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR24" t="n">
         <v>1.02</v>
@@ -6151,7 +6151,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR26" t="n">
         <v>1.44</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.86</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ28" t="n">
         <v>2.13</v>
@@ -7020,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR30" t="n">
         <v>1.86</v>
@@ -7241,7 +7241,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR31" t="n">
         <v>2.21</v>
@@ -7456,7 +7456,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.25</v>
@@ -8331,7 +8331,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR36" t="n">
         <v>1.32</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.25</v>
@@ -8767,7 +8767,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR38" t="n">
         <v>1.37</v>
@@ -8982,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.13</v>
@@ -9203,7 +9203,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR40" t="n">
         <v>0.87</v>
@@ -9636,7 +9636,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ42" t="n">
         <v>1</v>
@@ -10729,7 +10729,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR47" t="n">
         <v>1.32</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.14</v>
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ52" t="n">
         <v>1</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.25</v>
@@ -12252,10 +12252,10 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR54" t="n">
         <v>1.65</v>
@@ -12473,7 +12473,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR55" t="n">
         <v>2.22</v>
@@ -12691,7 +12691,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR56" t="n">
         <v>2.61</v>
@@ -14868,10 +14868,10 @@
         <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR66" t="n">
         <v>1.86</v>
@@ -15086,10 +15086,10 @@
         <v>0.25</v>
       </c>
       <c r="AP67" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR67" t="n">
         <v>1.73</v>
@@ -15304,10 +15304,10 @@
         <v>1.75</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ68" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR68" t="n">
         <v>1.07</v>
@@ -15525,7 +15525,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR69" t="n">
         <v>1.29</v>
@@ -15740,7 +15740,7 @@
         <v>2.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ70" t="n">
         <v>2</v>
@@ -17484,10 +17484,10 @@
         <v>1.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR78" t="n">
         <v>0.9399999999999999</v>
@@ -17705,7 +17705,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR79" t="n">
         <v>1.15</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.75</v>
@@ -18141,7 +18141,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR81" t="n">
         <v>1.47</v>
@@ -18574,7 +18574,7 @@
         <v>2</v>
       </c>
       <c r="AP83" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ83" t="n">
         <v>2</v>
@@ -18792,10 +18792,10 @@
         <v>2</v>
       </c>
       <c r="AP84" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR84" t="n">
         <v>1.54</v>
@@ -20536,7 +20536,7 @@
         <v>0.83</v>
       </c>
       <c r="AP92" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.75</v>
@@ -20754,10 +20754,10 @@
         <v>0.17</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR93" t="n">
         <v>0.86</v>
@@ -20975,7 +20975,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR94" t="n">
         <v>1.29</v>
@@ -21193,7 +21193,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ95" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR95" t="n">
         <v>0.9399999999999999</v>
@@ -21626,7 +21626,7 @@
         <v>2.17</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ97" t="n">
         <v>2.13</v>
@@ -21844,10 +21844,10 @@
         <v>1.71</v>
       </c>
       <c r="AP98" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR98" t="n">
         <v>1.55</v>
@@ -24103,6 +24103,878 @@
       </c>
       <c r="BP108" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>8280491</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>46033.45833333334</v>
+      </c>
+      <c r="F109" t="n">
+        <v>16</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>2</v>
+      </c>
+      <c r="L109" t="n">
+        <v>3</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>4</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['9', '41', '67']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V109" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X109" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>8280550</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>46033.52083333334</v>
+      </c>
+      <c r="F110" t="n">
+        <v>16</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" t="n">
+        <v>4</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>4</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['27', '43', '66', '74']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S110" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V110" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X110" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>8280483</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>46033.60416666666</v>
+      </c>
+      <c r="F111" t="n">
+        <v>16</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>2</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2</v>
+      </c>
+      <c r="S111" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="V111" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X111" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>8280473</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>46033.66666666666</v>
+      </c>
+      <c r="F112" t="n">
+        <v>16</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>3</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>3</v>
+      </c>
+      <c r="L112" t="n">
+        <v>3</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>3</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['4', '15', '39']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S112" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U112" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X112" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>25</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -24702,22 +24702,22 @@
         <v>6</v>
       </c>
       <c r="AX111" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY111" t="n">
         <v>10</v>
       </c>
       <c r="AZ111" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA111" t="n">
         <v>7</v>
       </c>
       <c r="BB111" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC111" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD111" t="n">
         <v>2.75</v>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,7 +2009,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.86</v>
@@ -2881,7 +2881,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ23" t="n">
         <v>1</v>
@@ -7459,7 +7459,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR32" t="n">
         <v>0.78</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.5600000000000001</v>
@@ -10511,7 +10511,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR46" t="n">
         <v>1.25</v>
@@ -11598,7 +11598,7 @@
         <v>0.67</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.75</v>
@@ -13127,7 +13127,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR58" t="n">
         <v>1.13</v>
@@ -13778,7 +13778,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ61" t="n">
         <v>2</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.14</v>
@@ -16615,7 +16615,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR74" t="n">
         <v>2.01</v>
@@ -19231,7 +19231,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR86" t="n">
         <v>1.33</v>
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.13</v>
@@ -22501,7 +22501,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR101" t="n">
         <v>2.4</v>
@@ -23370,7 +23370,7 @@
         <v>1.5</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.71</v>
@@ -24975,6 +24975,224 @@
       </c>
       <c r="BP112" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>8280488</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>46039.4375</v>
+      </c>
+      <c r="F113" t="n">
+        <v>17</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>2</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="n">
+        <v>3</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['59', '90+2']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S113" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X113" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.13</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.75</v>
@@ -2445,7 +2445,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.11</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.5600000000000001</v>
@@ -3314,7 +3314,7 @@
         <v>3</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ13" t="n">
         <v>1</v>
@@ -3971,7 +3971,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR22" t="n">
         <v>1.07</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.13</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ26" t="n">
         <v>2.13</v>
@@ -6369,7 +6369,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR27" t="n">
         <v>1.42</v>
@@ -7238,7 +7238,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.33</v>
@@ -7895,7 +7895,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR34" t="n">
         <v>0.9</v>
@@ -8549,7 +8549,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR37" t="n">
         <v>0.82</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.33</v>
@@ -9418,7 +9418,7 @@
         <v>2</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ41" t="n">
         <v>2.13</v>
@@ -9854,7 +9854,7 @@
         <v>1.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ43" t="n">
         <v>2.13</v>
@@ -10293,7 +10293,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR45" t="n">
         <v>0.84</v>
@@ -10947,7 +10947,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR48" t="n">
         <v>2.01</v>
@@ -11162,7 +11162,7 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ49" t="n">
         <v>2</v>
@@ -12037,7 +12037,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR53" t="n">
         <v>1.77</v>
@@ -12470,7 +12470,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.33</v>
@@ -12909,7 +12909,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR57" t="n">
         <v>1.32</v>
@@ -13345,7 +13345,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR59" t="n">
         <v>2.31</v>
@@ -13560,7 +13560,7 @@
         <v>0.67</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.71</v>
@@ -13996,7 +13996,7 @@
         <v>1.25</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.13</v>
@@ -14217,7 +14217,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR63" t="n">
         <v>1.09</v>
@@ -16397,7 +16397,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR73" t="n">
         <v>1.03</v>
@@ -16612,7 +16612,7 @@
         <v>1.6</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.11</v>
@@ -16830,10 +16830,10 @@
         <v>1.4</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR75" t="n">
         <v>1.87</v>
@@ -17266,10 +17266,10 @@
         <v>0.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR77" t="n">
         <v>1.29</v>
@@ -19013,7 +19013,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR85" t="n">
         <v>2.23</v>
@@ -19664,10 +19664,10 @@
         <v>1.4</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR88" t="n">
         <v>1.39</v>
@@ -19882,10 +19882,10 @@
         <v>1.17</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR89" t="n">
         <v>2.01</v>
@@ -20100,7 +20100,7 @@
         <v>1.17</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ90" t="n">
         <v>1</v>
@@ -22065,7 +22065,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR99" t="n">
         <v>1.21</v>
@@ -22716,7 +22716,7 @@
         <v>1</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ102" t="n">
         <v>1</v>
@@ -22934,10 +22934,10 @@
         <v>1.33</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR103" t="n">
         <v>2.01</v>
@@ -23152,10 +23152,10 @@
         <v>1</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR104" t="n">
         <v>2.02</v>
@@ -25192,6 +25192,660 @@
         <v>3.91</v>
       </c>
       <c r="BP113" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>8280489</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>46040.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>17</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>4</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S114" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V114" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X114" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>8280485</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>46040.58333333334</v>
+      </c>
+      <c r="F115" t="n">
+        <v>17</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>3</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>3</v>
+      </c>
+      <c r="L115" t="n">
+        <v>3</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['18', '40', '43']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R115" t="n">
+        <v>3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U115" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V115" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X115" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>20</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>8280521</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>46040.66666666666</v>
+      </c>
+      <c r="F116" t="n">
+        <v>17</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>4</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>4</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['15', '57', '65', '78']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S116" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V116" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X116" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BP116" t="n">
         <v>1.19</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP116"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ4" t="n">
         <v>1</v>
@@ -3535,7 +3535,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.33</v>
@@ -6805,7 +6805,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR29" t="n">
         <v>2.89</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ34" t="n">
         <v>1</v>
@@ -10075,7 +10075,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR44" t="n">
         <v>1.23</v>
@@ -10290,7 +10290,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.75</v>
@@ -13563,7 +13563,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR60" t="n">
         <v>1.21</v>
@@ -14432,7 +14432,7 @@
         <v>1.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.75</v>
@@ -17051,7 +17051,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR76" t="n">
         <v>1.1</v>
@@ -18356,7 +18356,7 @@
         <v>2</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ82" t="n">
         <v>2.13</v>
@@ -19449,7 +19449,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR87" t="n">
         <v>1.3</v>
@@ -21190,7 +21190,7 @@
         <v>2.17</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ95" t="n">
         <v>2.13</v>
@@ -23373,7 +23373,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR105" t="n">
         <v>1.05</v>
@@ -24024,7 +24024,7 @@
         <v>1.86</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ108" t="n">
         <v>2</v>
@@ -25847,6 +25847,224 @@
       </c>
       <c r="BP116" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>8280471</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>46041.54166666666</v>
+      </c>
+      <c r="F117" t="n">
+        <v>17</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3</v>
+      </c>
+      <c r="K117" t="n">
+        <v>3</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>3</v>
+      </c>
+      <c r="N117" t="n">
+        <v>4</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['3', '10', '45']</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S117" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V117" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X117" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ8" t="n">
         <v>2.13</v>
@@ -3317,7 +3317,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR13" t="n">
         <v>2.22</v>
@@ -5497,7 +5497,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR23" t="n">
         <v>1.27</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.5600000000000001</v>
@@ -9639,7 +9639,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR42" t="n">
         <v>1.28</v>
@@ -10726,7 +10726,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.13</v>
@@ -11819,7 +11819,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR52" t="n">
         <v>0.92</v>
@@ -12906,7 +12906,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -16179,7 +16179,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR72" t="n">
         <v>2.15</v>
@@ -17048,7 +17048,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.88</v>
@@ -19228,7 +19228,7 @@
         <v>1.33</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.11</v>
@@ -20103,7 +20103,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR90" t="n">
         <v>2</v>
@@ -22280,7 +22280,7 @@
         <v>1.29</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.13</v>
@@ -22719,7 +22719,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR102" t="n">
         <v>1.34</v>
@@ -26064,6 +26064,224 @@
         <v>4.3</v>
       </c>
       <c r="BP117" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>8280493</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>46041.625</v>
+      </c>
+      <c r="F118" t="n">
+        <v>17</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2</v>
+      </c>
+      <c r="K118" t="n">
+        <v>2</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>3</v>
+      </c>
+      <c r="N118" t="n">
+        <v>3</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['2', '10', '73']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S118" t="n">
+        <v>4</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V118" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X118" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BP118" t="n">
         <v>1.17</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -25565,7 +25565,7 @@
         <v>3</v>
       </c>
       <c r="AU115" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV115" t="n">
         <v>1</v>
@@ -25577,7 +25577,7 @@
         <v>2</v>
       </c>
       <c r="AY115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ115" t="n">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.5600000000000001</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.13</v>
@@ -4189,7 +4189,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR17" t="n">
         <v>1</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.88</v>
@@ -7241,7 +7241,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR31" t="n">
         <v>2.21</v>
@@ -8767,7 +8767,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR38" t="n">
         <v>1.37</v>
@@ -12473,7 +12473,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR55" t="n">
         <v>2.22</v>
@@ -12688,7 +12688,7 @@
         <v>2.33</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.13</v>
@@ -13342,7 +13342,7 @@
         <v>1.75</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.11</v>
@@ -15525,7 +15525,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR69" t="n">
         <v>1.29</v>
@@ -16176,7 +16176,7 @@
         <v>1.4</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.22</v>
@@ -17487,7 +17487,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR78" t="n">
         <v>0.9399999999999999</v>
@@ -19010,7 +19010,7 @@
         <v>1.2</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.75</v>
@@ -21847,7 +21847,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR98" t="n">
         <v>1.55</v>
@@ -22498,7 +22498,7 @@
         <v>1.29</v>
       </c>
       <c r="AP101" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.11</v>
@@ -24245,7 +24245,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR109" t="n">
         <v>1.74</v>
@@ -26283,6 +26283,224 @@
       </c>
       <c r="BP118" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>8280539</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>46046.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>18</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S119" t="n">
+        <v>11</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U119" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="V119" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X119" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>19</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP119"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.11</v>
@@ -3753,7 +3753,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR15" t="n">
         <v>2.26</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.75</v>
@@ -4843,7 +4843,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR20" t="n">
         <v>1.51</v>
@@ -6148,10 +6148,10 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR26" t="n">
         <v>1.44</v>
@@ -7023,7 +7023,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR30" t="n">
         <v>1.86</v>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ33" t="n">
         <v>2</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.2</v>
@@ -9203,7 +9203,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR40" t="n">
         <v>0.87</v>
@@ -9854,7 +9854,7 @@
         <v>1.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ43" t="n">
         <v>2.13</v>
@@ -10508,7 +10508,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.11</v>
@@ -10729,7 +10729,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR47" t="n">
         <v>1.32</v>
@@ -12691,7 +12691,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR56" t="n">
         <v>2.61</v>
@@ -13560,7 +13560,7 @@
         <v>0.67</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.88</v>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.75</v>
@@ -15089,7 +15089,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR67" t="n">
         <v>1.73</v>
@@ -15307,7 +15307,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ68" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR68" t="n">
         <v>1.07</v>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.13</v>
@@ -17266,7 +17266,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.75</v>
@@ -17705,7 +17705,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR79" t="n">
         <v>1.15</v>
@@ -18795,7 +18795,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR84" t="n">
         <v>1.54</v>
@@ -19446,7 +19446,7 @@
         <v>1.6</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.88</v>
@@ -19664,7 +19664,7 @@
         <v>1.4</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ88" t="n">
         <v>1</v>
@@ -20757,7 +20757,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR93" t="n">
         <v>0.86</v>
@@ -21193,7 +21193,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ95" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR95" t="n">
         <v>0.9399999999999999</v>
@@ -22062,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.11</v>
@@ -22716,7 +22716,7 @@
         <v>1</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.22</v>
@@ -24681,7 +24681,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ111" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR111" t="n">
         <v>1.59</v>
@@ -24899,7 +24899,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR112" t="n">
         <v>1.45</v>
@@ -25332,7 +25332,7 @@
         <v>1.25</v>
       </c>
       <c r="AP114" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.11</v>
@@ -26501,6 +26501,442 @@
       </c>
       <c r="BP119" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>8280543</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>46046.60416666666</v>
+      </c>
+      <c r="F120" t="n">
+        <v>18</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S120" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V120" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X120" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>8280496</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>46046.625</v>
+      </c>
+      <c r="F121" t="n">
+        <v>18</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S121" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V121" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X121" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.2</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR10" t="n">
         <v>1.51</v>
@@ -3535,7 +3535,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.11</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21" t="n">
         <v>2</v>
@@ -5933,7 +5933,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR25" t="n">
         <v>2.39</v>
@@ -6805,7 +6805,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR29" t="n">
         <v>2.89</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.11</v>
@@ -7456,7 +7456,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.11</v>
@@ -8110,7 +8110,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.75</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.11</v>
@@ -8985,7 +8985,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR39" t="n">
         <v>1.58</v>
@@ -10072,10 +10072,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR44" t="n">
         <v>1.23</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48" t="n">
         <v>1</v>
@@ -11383,7 +11383,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR50" t="n">
         <v>1.18</v>
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.22</v>
@@ -13124,7 +13124,7 @@
         <v>1.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.11</v>
@@ -13563,7 +13563,7 @@
         <v>1</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR60" t="n">
         <v>1.21</v>
@@ -13999,7 +13999,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR62" t="n">
         <v>1.82</v>
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.5600000000000001</v>
@@ -15304,7 +15304,7 @@
         <v>1.75</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ68" t="n">
         <v>2.22</v>
@@ -15522,7 +15522,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.2</v>
@@ -15961,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR71" t="n">
         <v>1.41</v>
@@ -17051,7 +17051,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR76" t="n">
         <v>1.1</v>
@@ -17484,7 +17484,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.2</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.75</v>
@@ -18138,7 +18138,7 @@
         <v>0.17</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.5600000000000001</v>
@@ -19449,7 +19449,7 @@
         <v>1</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR87" t="n">
         <v>1.3</v>
@@ -20321,7 +20321,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR91" t="n">
         <v>1.02</v>
@@ -20754,7 +20754,7 @@
         <v>0.17</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.11</v>
@@ -21408,7 +21408,7 @@
         <v>2.17</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ96" t="n">
         <v>2</v>
@@ -21626,7 +21626,7 @@
         <v>2.17</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ97" t="n">
         <v>2.13</v>
@@ -22283,7 +22283,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR100" t="n">
         <v>1.39</v>
@@ -23373,7 +23373,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR105" t="n">
         <v>1.05</v>
@@ -23806,7 +23806,7 @@
         <v>2</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ107" t="n">
         <v>2.13</v>
@@ -24460,7 +24460,7 @@
         <v>0.63</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ110" t="n">
         <v>0.5600000000000001</v>
@@ -24678,7 +24678,7 @@
         <v>2.29</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ111" t="n">
         <v>2.22</v>
@@ -25989,7 +25989,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR117" t="n">
         <v>0.82</v>
@@ -26936,6 +26936,660 @@
         <v>3.85</v>
       </c>
       <c r="BP121" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>8280495</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>46047.45833333334</v>
+      </c>
+      <c r="F122" t="n">
+        <v>18</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>2</v>
+      </c>
+      <c r="M122" t="n">
+        <v>2</v>
+      </c>
+      <c r="N122" t="n">
+        <v>4</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['29', '63']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['46', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S122" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V122" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X122" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>8280503</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>46047.54166666666</v>
+      </c>
+      <c r="F123" t="n">
+        <v>18</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S123" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V123" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X123" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>8280579</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>46047.60416666666</v>
+      </c>
+      <c r="F124" t="n">
+        <v>18</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S124" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V124" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X124" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BP124" t="n">
         <v>1.2</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP124"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.22</v>
@@ -1791,7 +1791,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ8" t="n">
         <v>2.13</v>
@@ -2445,7 +2445,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.2</v>
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR22" t="n">
         <v>1.07</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.5600000000000001</v>
@@ -6369,7 +6369,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR27" t="n">
         <v>1.42</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ34" t="n">
         <v>1</v>
@@ -8110,10 +8110,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR35" t="n">
         <v>0.93</v>
@@ -8549,7 +8549,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR37" t="n">
         <v>0.82</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.78</v>
@@ -10290,10 +10290,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR45" t="n">
         <v>0.84</v>
@@ -10726,7 +10726,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.11</v>
@@ -11601,7 +11601,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR51" t="n">
         <v>1.2</v>
@@ -12037,7 +12037,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR53" t="n">
         <v>1.77</v>
@@ -12906,7 +12906,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13124,7 +13124,7 @@
         <v>1.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.11</v>
@@ -13345,7 +13345,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR59" t="n">
         <v>2.31</v>
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR63" t="n">
         <v>1.09</v>
@@ -14432,10 +14432,10 @@
         <v>1.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR64" t="n">
         <v>0.92</v>
@@ -15522,7 +15522,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.2</v>
@@ -16833,7 +16833,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR75" t="n">
         <v>1.87</v>
@@ -17048,7 +17048,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.78</v>
@@ -17269,7 +17269,7 @@
         <v>1</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR77" t="n">
         <v>1.29</v>
@@ -17923,7 +17923,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR80" t="n">
         <v>1.62</v>
@@ -18138,7 +18138,7 @@
         <v>0.17</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.5600000000000001</v>
@@ -18356,7 +18356,7 @@
         <v>2</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ82" t="n">
         <v>2.13</v>
@@ -19013,7 +19013,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR85" t="n">
         <v>2.23</v>
@@ -19228,7 +19228,7 @@
         <v>1.33</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.11</v>
@@ -19885,7 +19885,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR89" t="n">
         <v>2.01</v>
@@ -20539,7 +20539,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR92" t="n">
         <v>1.71</v>
@@ -21190,7 +21190,7 @@
         <v>2.17</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ95" t="n">
         <v>2.22</v>
@@ -21408,7 +21408,7 @@
         <v>2.17</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ96" t="n">
         <v>2</v>
@@ -22065,7 +22065,7 @@
         <v>1</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR99" t="n">
         <v>1.21</v>
@@ -22280,7 +22280,7 @@
         <v>1.29</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ100" t="n">
         <v>1</v>
@@ -23155,7 +23155,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR104" t="n">
         <v>2.02</v>
@@ -23591,7 +23591,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR106" t="n">
         <v>1.42</v>
@@ -23806,7 +23806,7 @@
         <v>2</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ107" t="n">
         <v>2.13</v>
@@ -24024,7 +24024,7 @@
         <v>1.86</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ108" t="n">
         <v>2</v>
@@ -25335,7 +25335,7 @@
         <v>1</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR114" t="n">
         <v>1.26</v>
@@ -25553,7 +25553,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR115" t="n">
         <v>2.02</v>
@@ -25986,7 +25986,7 @@
         <v>1.71</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.78</v>
@@ -26204,7 +26204,7 @@
         <v>1</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.22</v>
@@ -27512,7 +27512,7 @@
         <v>1</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ124" t="n">
         <v>1</v>
@@ -27591,6 +27591,660 @@
       </c>
       <c r="BP124" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>8280523</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>46053.5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>19</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="R125" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S125" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V125" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X125" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>8280557</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>46053.54166666666</v>
+      </c>
+      <c r="F126" t="n">
+        <v>19</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>2</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2</v>
+      </c>
+      <c r="N126" t="n">
+        <v>3</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['15', '49']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S126" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V126" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X126" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>8280505</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>46053.625</v>
+      </c>
+      <c r="F127" t="n">
+        <v>19</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>2</v>
+      </c>
+      <c r="N127" t="n">
+        <v>2</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['39', '45+4']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R127" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S127" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V127" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X127" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.11</v>
@@ -3099,7 +3099,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR12" t="n">
         <v>2.7</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ20" t="n">
         <v>2.22</v>
@@ -5715,7 +5715,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR24" t="n">
         <v>1.02</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR36" t="n">
         <v>1.32</v>
@@ -8982,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ39" t="n">
         <v>1</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.3</v>
@@ -12255,7 +12255,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR54" t="n">
         <v>1.65</v>
@@ -14871,7 +14871,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR66" t="n">
         <v>1.86</v>
@@ -15086,7 +15086,7 @@
         <v>0.25</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.11</v>
@@ -18141,7 +18141,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR81" t="n">
         <v>1.47</v>
@@ -18574,7 +18574,7 @@
         <v>2</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ83" t="n">
         <v>2</v>
@@ -20536,7 +20536,7 @@
         <v>0.83</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ92" t="n">
         <v>1</v>
@@ -20975,7 +20975,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR94" t="n">
         <v>1.29</v>
@@ -24242,7 +24242,7 @@
         <v>1.5</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.2</v>
@@ -24463,7 +24463,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR110" t="n">
         <v>0.91</v>
@@ -28245,6 +28245,224 @@
       </c>
       <c r="BP127" t="n">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>8280558</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>46054.45833333334</v>
+      </c>
+      <c r="F128" t="n">
+        <v>19</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>3</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="n">
+        <v>4</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['44', '47', '61']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R128" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S128" t="n">
+        <v>5</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V128" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X128" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BN128" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO128" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="BP128" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
@@ -2009,7 +2009,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.5</v>
@@ -3314,7 +3314,7 @@
         <v>3</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.22</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.78</v>
@@ -3753,7 +3753,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR15" t="n">
         <v>2.26</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR28" t="n">
         <v>1.76</v>
@@ -7023,7 +7023,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR30" t="n">
         <v>1.86</v>
@@ -7238,7 +7238,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.2</v>
@@ -7459,7 +7459,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR32" t="n">
         <v>0.78</v>
@@ -9418,10 +9418,10 @@
         <v>2</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR41" t="n">
         <v>2.54</v>
@@ -9636,7 +9636,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.22</v>
@@ -9857,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR43" t="n">
         <v>1.44</v>
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR46" t="n">
         <v>1.25</v>
@@ -10729,7 +10729,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR47" t="n">
         <v>1.32</v>
@@ -11162,7 +11162,7 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AQ49" t="n">
         <v>2</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.5</v>
@@ -12470,7 +12470,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.2</v>
@@ -13127,7 +13127,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR58" t="n">
         <v>1.13</v>
@@ -13996,7 +13996,7 @@
         <v>1.25</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AQ62" t="n">
         <v>1</v>
@@ -14653,7 +14653,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR65" t="n">
         <v>1.2</v>
@@ -15089,7 +15089,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR67" t="n">
         <v>1.73</v>
@@ -15740,7 +15740,7 @@
         <v>2.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ70" t="n">
         <v>2</v>
@@ -16612,10 +16612,10 @@
         <v>1.6</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR74" t="n">
         <v>2.01</v>
@@ -16830,7 +16830,7 @@
         <v>1.4</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.3</v>
@@ -17705,7 +17705,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR79" t="n">
         <v>1.15</v>
@@ -18359,7 +18359,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ82" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR82" t="n">
         <v>0.97</v>
@@ -18792,7 +18792,7 @@
         <v>2</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.22</v>
@@ -19231,7 +19231,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR86" t="n">
         <v>1.33</v>
@@ -19882,7 +19882,7 @@
         <v>1.17</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.3</v>
@@ -20100,7 +20100,7 @@
         <v>1.17</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.22</v>
@@ -20757,7 +20757,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR93" t="n">
         <v>0.86</v>
@@ -21629,7 +21629,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ97" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR97" t="n">
         <v>1.69</v>
@@ -21844,7 +21844,7 @@
         <v>1.71</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.2</v>
@@ -22501,7 +22501,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR101" t="n">
         <v>2.4</v>
@@ -22934,7 +22934,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ103" t="n">
         <v>1</v>
@@ -23152,7 +23152,7 @@
         <v>1</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AQ104" t="n">
         <v>1</v>
@@ -23809,7 +23809,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ107" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR107" t="n">
         <v>1.35</v>
@@ -24896,10 +24896,10 @@
         <v>0.14</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR112" t="n">
         <v>1.45</v>
@@ -25117,7 +25117,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR113" t="n">
         <v>1.03</v>
@@ -25550,7 +25550,7 @@
         <v>0.86</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ115" t="n">
         <v>1</v>
@@ -25768,7 +25768,7 @@
         <v>1.14</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AQ116" t="n">
         <v>1</v>
@@ -26861,7 +26861,7 @@
         <v>1</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR121" t="n">
         <v>1.25</v>
@@ -28463,6 +28463,660 @@
       </c>
       <c r="BP128" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>8280504</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>46054.52083333334</v>
+      </c>
+      <c r="F129" t="n">
+        <v>19</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>3</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>3</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['21', '81', '84']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R129" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S129" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U129" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="V129" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X129" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BN129" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO129" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP129" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>8280502</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>46054.60416666666</v>
+      </c>
+      <c r="F130" t="n">
+        <v>19</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>4</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>5</v>
+      </c>
+      <c r="L130" t="n">
+        <v>4</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="n">
+        <v>5</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['5', '8', '19', '26']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R130" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S130" t="n">
+        <v>15</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U130" t="n">
+        <v>4</v>
+      </c>
+      <c r="V130" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X130" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>26</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN130" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO130" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BP130" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>8280529</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>46054.66666666666</v>
+      </c>
+      <c r="F131" t="n">
+        <v>19</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="n">
+        <v>2</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>['90+16']</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S131" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V131" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X131" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BP131" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -784,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8280519</v>
+        <v>8280518</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -804,12 +804,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Volos NFC</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -832,7 +832,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['64', '67']</t>
+          <t>['90+3', '90+7']</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -841,73 +841,73 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="S2" t="n">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="U2" t="n">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="V2" t="n">
-        <v>2.85</v>
+        <v>2.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>6.23</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.61</v>
+        <v>1.19</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.4</v>
+        <v>5.62</v>
       </c>
       <c r="AB2" t="n">
-        <v>5</v>
+        <v>18.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.16</v>
+        <v>3.75</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.22</v>
+        <v>4.7</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.33</v>
+        <v>2.78</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -931,70 +931,70 @@
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AX2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA2" t="n">
         <v>12</v>
       </c>
-      <c r="AZ2" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>5</v>
-      </c>
       <c r="BB2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.7</v>
+        <v>1.17</v>
       </c>
       <c r="BE2" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="BF2" t="n">
-        <v>2.74</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BG2" t="n">
         <v>1.56</v>
       </c>
       <c r="BH2" t="n">
-        <v>2.21</v>
+        <v>2.35</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="BK2" t="n">
-        <v>2.7</v>
+        <v>3.89</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="BM2" t="n">
-        <v>3.74</v>
+        <v>3.3</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="BO2" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3">
@@ -1002,7 +1002,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8280518</v>
+        <v>8280519</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1022,12 +1022,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Olympiakos Piraeus</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>Volos NFC</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['90+3', '90+7']</t>
+          <t>['64', '67']</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1059,160 +1059,160 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC3" t="n">
         <v>9</v>
       </c>
-      <c r="T3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>15</v>
-      </c>
       <c r="BD3" t="n">
-        <v>1.17</v>
+        <v>1.7</v>
       </c>
       <c r="BE3" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="BF3" t="n">
-        <v>8.699999999999999</v>
+        <v>2.74</v>
       </c>
       <c r="BG3" t="n">
         <v>1.56</v>
       </c>
       <c r="BH3" t="n">
-        <v>2.35</v>
+        <v>2.21</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="BK3" t="n">
-        <v>3.89</v>
+        <v>2.7</v>
       </c>
       <c r="BL3" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="BM3" t="n">
-        <v>3.3</v>
+        <v>3.74</v>
       </c>
       <c r="BN3" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="BO3" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="4">
@@ -8850,7 +8850,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>8280453</v>
+        <v>8280454</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -8870,197 +8870,197 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Panaitolikos</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>['14', '31', '39', '45+5', '61', '90+7']</t>
+          <t>['14', '29']</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['44', '60', '90+2']</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>2.33</v>
+        <v>7.3</v>
       </c>
       <c r="R39" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S39" t="n">
-        <v>6</v>
+        <v>1.89</v>
       </c>
       <c r="T39" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="U39" t="n">
-        <v>2.47</v>
+        <v>3.15</v>
       </c>
       <c r="V39" t="n">
-        <v>3.34</v>
+        <v>2.77</v>
       </c>
       <c r="W39" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="X39" t="n">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="Y39" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AC39" t="n">
         <v>1.05</v>
       </c>
-      <c r="Z39" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>1.07</v>
-      </c>
       <c r="AD39" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AF39" t="n">
-        <v>2.71</v>
+        <v>3.3</v>
       </c>
       <c r="AG39" t="n">
-        <v>2.29</v>
+        <v>1.93</v>
       </c>
       <c r="AH39" t="n">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="AI39" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AK39" t="n">
-        <v>1.25</v>
+        <v>2.84</v>
       </c>
       <c r="AL39" t="n">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="AM39" t="n">
-        <v>2.13</v>
+        <v>1.08</v>
       </c>
       <c r="AN39" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO39" t="n">
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AR39" t="n">
-        <v>1.58</v>
+        <v>0.87</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.76</v>
+        <v>2.14</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.34</v>
+        <v>3.01</v>
       </c>
       <c r="AU39" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX39" t="n">
         <v>6</v>
       </c>
       <c r="AY39" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA39" t="n">
         <v>6</v>
       </c>
       <c r="BB39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD39" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="BE39" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BF39" t="n">
-        <v>4.59</v>
+        <v>1.22</v>
       </c>
       <c r="BG39" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="BH39" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="BI39" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="BJ39" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="BK39" t="n">
-        <v>2.39</v>
+        <v>2.5</v>
       </c>
       <c r="BL39" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="BM39" t="n">
-        <v>3.02</v>
+        <v>3.27</v>
       </c>
       <c r="BN39" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="BO39" t="n">
-        <v>4.15</v>
+        <v>4.5</v>
       </c>
       <c r="BP39" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="40">
@@ -9068,7 +9068,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>8280454</v>
+        <v>8280453</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -9088,197 +9088,197 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Panaitolikos</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['14', '29']</t>
+          <t>['14', '31', '39', '45+5', '61', '90+7']</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>['44', '60', '90+2']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>7.3</v>
+        <v>2.33</v>
       </c>
       <c r="R40" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S40" t="n">
-        <v>1.89</v>
+        <v>6</v>
       </c>
       <c r="T40" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="U40" t="n">
-        <v>3.15</v>
+        <v>2.47</v>
       </c>
       <c r="V40" t="n">
-        <v>2.77</v>
+        <v>3.34</v>
       </c>
       <c r="W40" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X40" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE40" t="n">
         <v>1.4</v>
       </c>
-      <c r="X40" t="n">
+      <c r="AF40" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW40" t="n">
         <v>7</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>9</v>
       </c>
       <c r="AX40" t="n">
         <v>6</v>
       </c>
       <c r="AY40" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ40" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA40" t="n">
         <v>6</v>
       </c>
       <c r="BB40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD40" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="BE40" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF40" t="n">
-        <v>1.22</v>
+        <v>4.59</v>
       </c>
       <c r="BG40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BL40" t="n">
         <v>1.55</v>
       </c>
-      <c r="BH40" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="BI40" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BJ40" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="BK40" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BL40" t="n">
-        <v>1.49</v>
-      </c>
       <c r="BM40" t="n">
-        <v>3.27</v>
+        <v>3.02</v>
       </c>
       <c r="BN40" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="BO40" t="n">
-        <v>4.5</v>
+        <v>4.15</v>
       </c>
       <c r="BP40" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="41">
@@ -14518,7 +14518,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>8280553</v>
+        <v>8280567</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -14538,197 +14538,197 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Olympiakos Piraeus</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X65" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV65" t="n">
         <v>4</v>
       </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>['47']</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>['37', '57', '71']</t>
-        </is>
-      </c>
-      <c r="Q65" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="R65" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="S65" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="T65" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="U65" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="V65" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="W65" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X65" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE65" t="n">
+      <c r="AW65" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BP65" t="n">
         <v>1.17</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO65" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AP65" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR65" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW65" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX65" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY65" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ65" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA65" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB65" t="n">
-        <v>10</v>
-      </c>
-      <c r="BC65" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD65" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="BE65" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BF65" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BG65" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="BH65" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BI65" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BJ65" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="BK65" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="BL65" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BM65" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="BN65" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BO65" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="BP65" t="n">
-        <v>1.14</v>
       </c>
     </row>
     <row r="66">
@@ -14736,7 +14736,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>8280567</v>
+        <v>8280553</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -14756,197 +14756,197 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['47']</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['37', '57', '71']</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>2.3</v>
+        <v>9.5</v>
       </c>
       <c r="R66" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U66" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X66" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH66" t="n">
         <v>2.15</v>
       </c>
-      <c r="S66" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="T66" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U66" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="V66" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W66" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X66" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AC66" t="n">
+      <c r="AI66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM66" t="n">
         <v>1.06</v>
       </c>
-      <c r="AD66" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AL66" t="n">
+      <c r="AN66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BF66" t="n">
         <v>1.22</v>
       </c>
-      <c r="AM66" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN66" t="n">
+      <c r="BG66" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="BN66" t="n">
         <v>1.25</v>
       </c>
-      <c r="AO66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP66" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY66" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ66" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA66" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC66" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD66" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BE66" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="BF66" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="BG66" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="BH66" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="BI66" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="BJ66" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="BK66" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="BL66" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="BM66" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="BN66" t="n">
-        <v>1.28</v>
-      </c>
       <c r="BO66" t="n">
-        <v>4.15</v>
+        <v>4.65</v>
       </c>
       <c r="BP66" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="67">
@@ -18006,7 +18006,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>8280477</v>
+        <v>8280476</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -18026,22 +18026,22 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>Panaitolikos</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -18059,164 +18059,164 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>['17']</t>
+          <t>['70']</t>
         </is>
       </c>
       <c r="Q81" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V81" t="n">
         <v>2.75</v>
       </c>
-      <c r="R81" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S81" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T81" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U81" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V81" t="n">
-        <v>3.36</v>
-      </c>
       <c r="W81" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="X81" t="n">
-        <v>8.9</v>
+        <v>6.35</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="Z81" t="n">
-        <v>2.34</v>
+        <v>13</v>
       </c>
       <c r="AA81" t="n">
-        <v>3.15</v>
+        <v>5.4</v>
       </c>
       <c r="AB81" t="n">
-        <v>3.29</v>
+        <v>1.27</v>
       </c>
       <c r="AC81" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AD81" t="n">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="AE81" t="n">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="AF81" t="n">
-        <v>2.76</v>
+        <v>3.6</v>
       </c>
       <c r="AG81" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AH81" t="n">
-        <v>1.63</v>
+        <v>1.95</v>
       </c>
       <c r="AI81" t="n">
-        <v>1.94</v>
+        <v>2.3</v>
       </c>
       <c r="AJ81" t="n">
-        <v>1.83</v>
+        <v>1.51</v>
       </c>
       <c r="AK81" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="AL81" t="n">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="AM81" t="n">
-        <v>1.53</v>
+        <v>1.06</v>
       </c>
       <c r="AN81" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="AO81" t="n">
-        <v>0.17</v>
+        <v>2</v>
       </c>
       <c r="AP81" t="n">
         <v>0.6</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AR81" t="n">
-        <v>1.47</v>
+        <v>0.97</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.87</v>
+        <v>1.53</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AU81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW81" t="n">
         <v>4</v>
       </c>
-      <c r="AV81" t="n">
+      <c r="AX81" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY81" t="n">
         <v>6</v>
       </c>
-      <c r="AW81" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX81" t="n">
+      <c r="AZ81" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA81" t="n">
         <v>3</v>
       </c>
-      <c r="AY81" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ81" t="n">
+      <c r="BB81" t="n">
         <v>9</v>
       </c>
-      <c r="BA81" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB81" t="n">
-        <v>6</v>
-      </c>
       <c r="BC81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD81" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="BE81" t="n">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="BF81" t="n">
-        <v>2.29</v>
+        <v>1.1</v>
       </c>
       <c r="BG81" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="BH81" t="n">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="BI81" t="n">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="BJ81" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="BK81" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BL81" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="BM81" t="n">
         <v>3.25</v>
       </c>
       <c r="BN81" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="BO81" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="BP81" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="82">
@@ -18224,7 +18224,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>8280476</v>
+        <v>8280477</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -18244,22 +18244,22 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Panaitolikos</t>
+          <t>Atromitos</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Olympiakos Piraeus</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -18277,164 +18277,164 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>['70']</t>
+          <t>['17']</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>7.4</v>
+        <v>2.75</v>
       </c>
       <c r="R82" t="n">
-        <v>2.56</v>
+        <v>1.94</v>
       </c>
       <c r="S82" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="T82" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="U82" t="n">
-        <v>2.81</v>
+        <v>2.42</v>
       </c>
       <c r="V82" t="n">
-        <v>2.75</v>
+        <v>3.36</v>
       </c>
       <c r="W82" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="X82" t="n">
-        <v>6.35</v>
+        <v>8.9</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="Z82" t="n">
-        <v>13</v>
+        <v>2.34</v>
       </c>
       <c r="AA82" t="n">
-        <v>5.4</v>
+        <v>3.15</v>
       </c>
       <c r="AB82" t="n">
-        <v>1.27</v>
+        <v>3.29</v>
       </c>
       <c r="AC82" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AD82" t="n">
-        <v>9</v>
+        <v>7.3</v>
       </c>
       <c r="AE82" t="n">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="AF82" t="n">
-        <v>3.6</v>
+        <v>2.76</v>
       </c>
       <c r="AG82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ82" t="n">
         <v>1.83</v>
       </c>
-      <c r="AH82" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>1.51</v>
-      </c>
       <c r="AK82" t="n">
-        <v>1.15</v>
+        <v>1.36</v>
       </c>
       <c r="AL82" t="n">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="AM82" t="n">
-        <v>1.06</v>
+        <v>1.53</v>
       </c>
       <c r="AN82" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="AO82" t="n">
-        <v>2</v>
+        <v>0.17</v>
       </c>
       <c r="AP82" t="n">
         <v>0.6</v>
       </c>
       <c r="AQ82" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AR82" t="n">
-        <v>0.97</v>
+        <v>1.47</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.53</v>
+        <v>0.87</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AU82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW82" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX82" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="AY82" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB82" t="n">
         <v>6</v>
       </c>
-      <c r="AZ82" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA82" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB82" t="n">
-        <v>9</v>
-      </c>
       <c r="BC82" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD82" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="BE82" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="BF82" t="n">
-        <v>1.1</v>
+        <v>2.29</v>
       </c>
       <c r="BG82" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="BH82" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="BI82" t="n">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="BJ82" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="BK82" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="BL82" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="BM82" t="n">
         <v>3.25</v>
       </c>
       <c r="BN82" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="BO82" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="BP82" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="83">
@@ -23674,7 +23674,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>8280490</v>
+        <v>8280469</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -23694,31 +23694,31 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>Panaitolikos</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Olympiakos Piraeus</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -23727,41 +23727,41 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>['35', '56']</t>
+          <t>['26', '45+1', '57']</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>9.52</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="R107" t="n">
-        <v>2.37</v>
+        <v>2.29</v>
       </c>
       <c r="S107" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="T107" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U107" t="n">
-        <v>3.22</v>
+        <v>3.3</v>
       </c>
       <c r="V107" t="n">
         <v>2.45</v>
       </c>
       <c r="W107" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="X107" t="n">
         <v>6</v>
       </c>
       <c r="Y107" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z107" t="n">
-        <v>9.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="AA107" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="AB107" t="n">
         <v>1.33</v>
@@ -23773,25 +23773,25 @@
         <v>12</v>
       </c>
       <c r="AE107" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AF107" t="n">
-        <v>3.62</v>
+        <v>3.8</v>
       </c>
       <c r="AG107" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AH107" t="n">
         <v>2.03</v>
       </c>
       <c r="AI107" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="AJ107" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="AK107" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="AL107" t="n">
         <v>0</v>
@@ -23800,10 +23800,10 @@
         <v>1.03</v>
       </c>
       <c r="AN107" t="n">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="AO107" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AP107" t="n">
         <v>0.6</v>
@@ -23812,79 +23812,79 @@
         <v>2</v>
       </c>
       <c r="AR107" t="n">
-        <v>1.35</v>
+        <v>0.88</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="AT107" t="n">
-        <v>3.05</v>
+        <v>2.34</v>
       </c>
       <c r="AU107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV107" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA107" t="n">
         <v>5</v>
       </c>
-      <c r="AW107" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX107" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY107" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ107" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA107" t="n">
-        <v>2</v>
-      </c>
       <c r="BB107" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC107" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD107" t="n">
-        <v>6.84</v>
+        <v>6.2</v>
       </c>
       <c r="BE107" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="BF107" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="BG107" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="BH107" t="n">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
       <c r="BI107" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="BJ107" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BK107" t="n">
-        <v>2.56</v>
+        <v>2.87</v>
       </c>
       <c r="BL107" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="BM107" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="BN107" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="BO107" t="n">
-        <v>4.65</v>
+        <v>4.33</v>
       </c>
       <c r="BP107" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="108">
@@ -23892,7 +23892,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>8280469</v>
+        <v>8280490</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -23912,31 +23912,31 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Panaitolikos</t>
+          <t>Atromitos</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -23945,41 +23945,41 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>['26', '45+1', '57']</t>
+          <t>['35', '56']</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>8.449999999999999</v>
+        <v>9.52</v>
       </c>
       <c r="R108" t="n">
-        <v>2.29</v>
+        <v>2.37</v>
       </c>
       <c r="S108" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="T108" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U108" t="n">
-        <v>3.3</v>
+        <v>3.22</v>
       </c>
       <c r="V108" t="n">
         <v>2.45</v>
       </c>
       <c r="W108" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="X108" t="n">
         <v>6</v>
       </c>
       <c r="Y108" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z108" t="n">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA108" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="AB108" t="n">
         <v>1.33</v>
@@ -23991,25 +23991,25 @@
         <v>12</v>
       </c>
       <c r="AE108" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AF108" t="n">
-        <v>3.8</v>
+        <v>3.62</v>
       </c>
       <c r="AG108" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AH108" t="n">
         <v>2.03</v>
       </c>
       <c r="AI108" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="AJ108" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AK108" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AL108" t="n">
         <v>0</v>
@@ -24018,10 +24018,10 @@
         <v>1.03</v>
       </c>
       <c r="AN108" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="AO108" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AP108" t="n">
         <v>0.6</v>
@@ -24030,79 +24030,79 @@
         <v>2</v>
       </c>
       <c r="AR108" t="n">
-        <v>0.88</v>
+        <v>1.35</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.34</v>
+        <v>3.05</v>
       </c>
       <c r="AU108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV108" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AW108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX108" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AY108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ108" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="BA108" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB108" t="n">
         <v>5</v>
       </c>
-      <c r="BB108" t="n">
-        <v>8</v>
-      </c>
       <c r="BC108" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BD108" t="n">
-        <v>6.2</v>
+        <v>6.84</v>
       </c>
       <c r="BE108" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BF108" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="BG108" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="BH108" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="BI108" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="BJ108" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BK108" t="n">
-        <v>2.87</v>
+        <v>2.56</v>
       </c>
       <c r="BL108" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="BM108" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="BN108" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="BO108" t="n">
-        <v>4.33</v>
+        <v>4.65</v>
       </c>
       <c r="BP108" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="109">

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP131"/>
+  <dimension ref="A1:BP132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2227,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ18" t="n">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR28" t="n">
         <v>1.76</v>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ33" t="n">
         <v>2</v>
@@ -9421,7 +9421,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR41" t="n">
         <v>2.54</v>
@@ -9857,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR43" t="n">
         <v>1.44</v>
@@ -10508,7 +10508,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ46" t="n">
         <v>1</v>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ63" t="n">
         <v>1</v>
@@ -14871,7 +14871,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR66" t="n">
         <v>1.2</v>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ71" t="n">
         <v>1</v>
@@ -18141,7 +18141,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR81" t="n">
         <v>0.97</v>
@@ -19446,7 +19446,7 @@
         <v>1.6</v>
       </c>
       <c r="AP87" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.78</v>
@@ -21629,7 +21629,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ97" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR97" t="n">
         <v>1.69</v>
@@ -22062,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.3</v>
@@ -24027,7 +24027,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ108" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR108" t="n">
         <v>1.35</v>
@@ -26640,7 +26640,7 @@
         <v>2.13</v>
       </c>
       <c r="AP120" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ120" t="n">
         <v>2.22</v>
@@ -29041,7 +29041,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ131" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR131" t="n">
         <v>1.91</v>
@@ -29116,6 +29116,224 @@
         <v>4.3</v>
       </c>
       <c r="BP131" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>8280536</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>46057.5625</v>
+      </c>
+      <c r="F132" t="n">
+        <v>17</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2</v>
+      </c>
+      <c r="K132" t="n">
+        <v>2</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>3</v>
+      </c>
+      <c r="N132" t="n">
+        <v>3</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>['2', '27', '59']</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>10</v>
+      </c>
+      <c r="R132" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S132" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V132" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X132" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="BP132" t="n">
         <v>1.16</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP132"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.5</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ9" t="n">
         <v>1</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR10" t="n">
         <v>1.51</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -3317,7 +3317,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR13" t="n">
         <v>2.22</v>
@@ -3535,7 +3535,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.1</v>
@@ -4189,7 +4189,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR17" t="n">
         <v>1</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ18" t="n">
         <v>1</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR20" t="n">
         <v>1.51</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.3</v>
@@ -5494,10 +5494,10 @@
         <v>1.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR23" t="n">
         <v>1.27</v>
@@ -5933,7 +5933,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR25" t="n">
         <v>2.39</v>
@@ -6148,10 +6148,10 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR26" t="n">
         <v>1.44</v>
@@ -6802,10 +6802,10 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR29" t="n">
         <v>2.89</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.1</v>
@@ -7241,7 +7241,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR31" t="n">
         <v>2.21</v>
@@ -7456,7 +7456,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32" t="n">
         <v>1</v>
@@ -7674,10 +7674,10 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR33" t="n">
         <v>1.1</v>
@@ -7895,7 +7895,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR34" t="n">
         <v>0.9</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.5</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.3</v>
@@ -8764,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR38" t="n">
         <v>1.37</v>
@@ -8982,10 +8982,10 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR39" t="n">
         <v>0.87</v>
@@ -9203,7 +9203,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR40" t="n">
         <v>1.58</v>
@@ -9639,7 +9639,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR42" t="n">
         <v>1.28</v>
@@ -9854,7 +9854,7 @@
         <v>1.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ43" t="n">
         <v>2.1</v>
@@ -10075,7 +10075,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR44" t="n">
         <v>1.23</v>
@@ -10508,7 +10508,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ46" t="n">
         <v>1</v>
@@ -10944,10 +10944,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR48" t="n">
         <v>2.01</v>
@@ -11165,7 +11165,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR49" t="n">
         <v>1.96</v>
@@ -11380,10 +11380,10 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR50" t="n">
         <v>1.18</v>
@@ -11598,7 +11598,7 @@
         <v>0.67</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ51" t="n">
         <v>1</v>
@@ -11816,10 +11816,10 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR52" t="n">
         <v>0.92</v>
@@ -12473,7 +12473,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR55" t="n">
         <v>2.22</v>
@@ -12688,10 +12688,10 @@
         <v>2.33</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR56" t="n">
         <v>2.61</v>
@@ -12909,7 +12909,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR57" t="n">
         <v>1.32</v>
@@ -13342,7 +13342,7 @@
         <v>1.75</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.3</v>
@@ -13560,10 +13560,10 @@
         <v>0.67</v>
       </c>
       <c r="AP60" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR60" t="n">
         <v>1.21</v>
@@ -13778,10 +13778,10 @@
         <v>2.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR61" t="n">
         <v>1.12</v>
@@ -13999,7 +13999,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR62" t="n">
         <v>1.82</v>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ63" t="n">
         <v>1</v>
@@ -14650,7 +14650,7 @@
         <v>0</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.5</v>
@@ -14868,7 +14868,7 @@
         <v>1.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ66" t="n">
         <v>2.1</v>
@@ -15304,10 +15304,10 @@
         <v>1.75</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR68" t="n">
         <v>1.07</v>
@@ -15525,7 +15525,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR69" t="n">
         <v>1.29</v>
@@ -15743,7 +15743,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ70" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR70" t="n">
         <v>1.72</v>
@@ -15958,10 +15958,10 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR71" t="n">
         <v>1.41</v>
@@ -16176,10 +16176,10 @@
         <v>1.4</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR72" t="n">
         <v>2.15</v>
@@ -16394,10 +16394,10 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR73" t="n">
         <v>1.03</v>
@@ -17051,7 +17051,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR76" t="n">
         <v>1.1</v>
@@ -17266,7 +17266,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ77" t="n">
         <v>1</v>
@@ -17484,10 +17484,10 @@
         <v>1.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR78" t="n">
         <v>0.9399999999999999</v>
@@ -17702,7 +17702,7 @@
         <v>0.2</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.1</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ80" t="n">
         <v>1</v>
@@ -18577,7 +18577,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ83" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR83" t="n">
         <v>1.78</v>
@@ -18795,7 +18795,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR84" t="n">
         <v>1.54</v>
@@ -19010,7 +19010,7 @@
         <v>1.2</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ85" t="n">
         <v>1</v>
@@ -19446,10 +19446,10 @@
         <v>1.6</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR87" t="n">
         <v>1.3</v>
@@ -19664,10 +19664,10 @@
         <v>1.4</v>
       </c>
       <c r="AP88" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR88" t="n">
         <v>1.39</v>
@@ -20103,7 +20103,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR90" t="n">
         <v>2</v>
@@ -20318,10 +20318,10 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR91" t="n">
         <v>1.02</v>
@@ -20754,7 +20754,7 @@
         <v>0.17</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.1</v>
@@ -20972,7 +20972,7 @@
         <v>0.57</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.5</v>
@@ -21193,7 +21193,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ95" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR95" t="n">
         <v>0.9399999999999999</v>
@@ -21411,7 +21411,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ96" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR96" t="n">
         <v>1.44</v>
@@ -21626,7 +21626,7 @@
         <v>2.17</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ97" t="n">
         <v>2.1</v>
@@ -21847,7 +21847,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR98" t="n">
         <v>1.55</v>
@@ -22062,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.3</v>
@@ -22283,7 +22283,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR100" t="n">
         <v>1.39</v>
@@ -22498,7 +22498,7 @@
         <v>1.29</v>
       </c>
       <c r="AP101" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ101" t="n">
         <v>1</v>
@@ -22716,10 +22716,10 @@
         <v>1</v>
       </c>
       <c r="AP102" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR102" t="n">
         <v>1.34</v>
@@ -22937,7 +22937,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR103" t="n">
         <v>2.01</v>
@@ -23370,10 +23370,10 @@
         <v>1.5</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR105" t="n">
         <v>1.05</v>
@@ -23588,7 +23588,7 @@
         <v>0.71</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ106" t="n">
         <v>1</v>
@@ -23809,7 +23809,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ107" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR107" t="n">
         <v>0.88</v>
@@ -24245,7 +24245,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR109" t="n">
         <v>1.74</v>
@@ -24460,7 +24460,7 @@
         <v>0.63</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110" t="n">
         <v>0.5</v>
@@ -24678,10 +24678,10 @@
         <v>2.29</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ111" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR111" t="n">
         <v>1.59</v>
@@ -25114,7 +25114,7 @@
         <v>1.25</v>
       </c>
       <c r="AP113" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ113" t="n">
         <v>1</v>
@@ -25332,7 +25332,7 @@
         <v>1.25</v>
       </c>
       <c r="AP114" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.3</v>
@@ -25771,7 +25771,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR116" t="n">
         <v>1.99</v>
@@ -25989,7 +25989,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR117" t="n">
         <v>0.82</v>
@@ -26207,7 +26207,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR118" t="n">
         <v>1.33</v>
@@ -26422,10 +26422,10 @@
         <v>1.33</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR119" t="n">
         <v>2.46</v>
@@ -26640,10 +26640,10 @@
         <v>2.13</v>
       </c>
       <c r="AP120" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ120" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR120" t="n">
         <v>1.18</v>
@@ -26858,7 +26858,7 @@
         <v>0.13</v>
       </c>
       <c r="AP121" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.1</v>
@@ -27076,10 +27076,10 @@
         <v>1.88</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR122" t="n">
         <v>1.54</v>
@@ -27294,10 +27294,10 @@
         <v>1.13</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR123" t="n">
         <v>1.02</v>
@@ -27515,7 +27515,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR124" t="n">
         <v>1.25</v>
@@ -29256,7 +29256,7 @@
         <v>2</v>
       </c>
       <c r="AP132" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ132" t="n">
         <v>2.1</v>
@@ -29335,6 +29335,1532 @@
       </c>
       <c r="BP132" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>8280508</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>46060.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>20</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>3</v>
+      </c>
+      <c r="K133" t="n">
+        <v>4</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="n">
+        <v>4</v>
+      </c>
+      <c r="N133" t="n">
+        <v>5</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['2', '23', '45+4', '74']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R133" t="n">
+        <v>2</v>
+      </c>
+      <c r="S133" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V133" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X133" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL133" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BN133" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO133" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="BP133" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>8280510</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>46060.54166666666</v>
+      </c>
+      <c r="F134" t="n">
+        <v>20</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>2</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['62', '76']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R134" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S134" t="n">
+        <v>5</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V134" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BL134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BN134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO134" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BP134" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>8280555</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>46060.625</v>
+      </c>
+      <c r="F135" t="n">
+        <v>20</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>3</v>
+      </c>
+      <c r="R135" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S135" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V135" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X135" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BL135" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="BN135" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO135" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BP135" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>8280509</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>46061.45833333334</v>
+      </c>
+      <c r="F136" t="n">
+        <v>20</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>4</v>
+      </c>
+      <c r="N136" t="n">
+        <v>4</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['55', '89', '90+5', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="R136" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S136" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U136" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="V136" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X136" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN136" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO136" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="BP136" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>8280511</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>46061.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>20</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>2</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>3</v>
+      </c>
+      <c r="L137" t="n">
+        <v>3</v>
+      </c>
+      <c r="M137" t="n">
+        <v>2</v>
+      </c>
+      <c r="N137" t="n">
+        <v>5</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['10', '37', '76']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['8', '57']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R137" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S137" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T137" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V137" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X137" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BL137" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BN137" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO137" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="BP137" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>8280507</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>46061.58333333334</v>
+      </c>
+      <c r="F138" t="n">
+        <v>20</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S138" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V138" t="n">
+        <v>3</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X138" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BL138" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BN138" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO138" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BP138" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>8280506</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>46061.66666666666</v>
+      </c>
+      <c r="F139" t="n">
+        <v>20</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S139" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V139" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X139" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BL139" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN139" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BO139" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BP139" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.4</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR12" t="n">
         <v>2.7</v>
@@ -3314,7 +3314,7 @@
         <v>3</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.4</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.6</v>
@@ -3971,7 +3971,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.09</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR20" t="n">
         <v>1.51</v>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR22" t="n">
         <v>1.07</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR24" t="n">
         <v>1.02</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.2</v>
@@ -6151,7 +6151,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR26" t="n">
         <v>1.44</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR28" t="n">
         <v>1.76</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.2</v>
@@ -8331,7 +8331,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR36" t="n">
         <v>1.32</v>
@@ -8549,7 +8549,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR37" t="n">
         <v>0.82</v>
@@ -8985,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR39" t="n">
         <v>0.87</v>
@@ -9200,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.2</v>
@@ -9418,10 +9418,10 @@
         <v>2</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR41" t="n">
         <v>2.54</v>
@@ -9636,7 +9636,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.4</v>
@@ -9857,7 +9857,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR43" t="n">
         <v>1.44</v>
@@ -10290,7 +10290,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ45" t="n">
         <v>1</v>
@@ -10726,7 +10726,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.1</v>
@@ -12034,10 +12034,10 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR53" t="n">
         <v>1.77</v>
@@ -12252,10 +12252,10 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR54" t="n">
         <v>1.65</v>
@@ -12470,7 +12470,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.09</v>
@@ -12691,7 +12691,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR56" t="n">
         <v>2.61</v>
@@ -12906,7 +12906,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.2</v>
@@ -13345,7 +13345,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR59" t="n">
         <v>2.31</v>
@@ -14432,7 +14432,7 @@
         <v>1.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ64" t="n">
         <v>1</v>
@@ -14653,7 +14653,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR65" t="n">
         <v>1.86</v>
@@ -14871,7 +14871,7 @@
         <v>1</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR66" t="n">
         <v>1.2</v>
@@ -15086,7 +15086,7 @@
         <v>0.25</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.1</v>
@@ -15307,7 +15307,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR68" t="n">
         <v>1.07</v>
@@ -15740,7 +15740,7 @@
         <v>2.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.89</v>
@@ -16612,7 +16612,7 @@
         <v>1.6</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ74" t="n">
         <v>1</v>
@@ -16833,7 +16833,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR75" t="n">
         <v>1.87</v>
@@ -17048,7 +17048,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.6</v>
@@ -18138,10 +18138,10 @@
         <v>2</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR81" t="n">
         <v>0.97</v>
@@ -18359,7 +18359,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR82" t="n">
         <v>1.47</v>
@@ -18574,7 +18574,7 @@
         <v>2</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.89</v>
@@ -18792,10 +18792,10 @@
         <v>2</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR84" t="n">
         <v>1.54</v>
@@ -19228,7 +19228,7 @@
         <v>1.33</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ86" t="n">
         <v>1</v>
@@ -19882,10 +19882,10 @@
         <v>1.17</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR89" t="n">
         <v>2.01</v>
@@ -20536,7 +20536,7 @@
         <v>0.83</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ92" t="n">
         <v>1</v>
@@ -20975,7 +20975,7 @@
         <v>1</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR94" t="n">
         <v>1.29</v>
@@ -21190,10 +21190,10 @@
         <v>2.17</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ95" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR95" t="n">
         <v>0.9399999999999999</v>
@@ -21629,7 +21629,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ97" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR97" t="n">
         <v>1.69</v>
@@ -21844,7 +21844,7 @@
         <v>1.71</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.09</v>
@@ -22065,7 +22065,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR99" t="n">
         <v>1.21</v>
@@ -22280,7 +22280,7 @@
         <v>1.29</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.2</v>
@@ -22934,7 +22934,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.2</v>
@@ -23806,7 +23806,7 @@
         <v>1.86</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.89</v>
@@ -24027,7 +24027,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ108" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR108" t="n">
         <v>1.35</v>
@@ -24242,7 +24242,7 @@
         <v>1.5</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.09</v>
@@ -24463,7 +24463,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR110" t="n">
         <v>0.91</v>
@@ -24681,7 +24681,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ111" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR111" t="n">
         <v>1.59</v>
@@ -24896,7 +24896,7 @@
         <v>0.14</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.1</v>
@@ -25335,7 +25335,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR114" t="n">
         <v>1.26</v>
@@ -25550,7 +25550,7 @@
         <v>0.86</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ115" t="n">
         <v>1</v>
@@ -25986,7 +25986,7 @@
         <v>1.71</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.6</v>
@@ -26204,7 +26204,7 @@
         <v>1</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.4</v>
@@ -26643,7 +26643,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ120" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR120" t="n">
         <v>1.18</v>
@@ -27730,10 +27730,10 @@
         <v>1.11</v>
       </c>
       <c r="AP125" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR125" t="n">
         <v>0.92</v>
@@ -28166,7 +28166,7 @@
         <v>0.75</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ127" t="n">
         <v>1</v>
@@ -28384,10 +28384,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR128" t="n">
         <v>1.72</v>
@@ -28602,7 +28602,7 @@
         <v>1.11</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ129" t="n">
         <v>1</v>
@@ -28820,7 +28820,7 @@
         <v>0.11</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AQ130" t="n">
         <v>0.1</v>
@@ -29041,7 +29041,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ131" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR131" t="n">
         <v>1.91</v>
@@ -29259,7 +29259,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ132" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR132" t="n">
         <v>1.23</v>
@@ -30131,7 +30131,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ136" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR136" t="n">
         <v>1.15</v>
@@ -30861,6 +30861,1314 @@
       </c>
       <c r="BP139" t="n">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>8280542</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>46067.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>21</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>2</v>
+      </c>
+      <c r="L140" t="n">
+        <v>3</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="n">
+        <v>4</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['19', '64', '81']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2</v>
+      </c>
+      <c r="S140" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V140" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X140" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN140" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO140" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="BP140" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>8280582</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>46067.60416666666</v>
+      </c>
+      <c r="F141" t="n">
+        <v>21</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="R141" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S141" t="n">
+        <v>2</v>
+      </c>
+      <c r="T141" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V141" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X141" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BL141" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BN141" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO141" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BP141" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>8280513</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>46067.625</v>
+      </c>
+      <c r="F142" t="n">
+        <v>21</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="n">
+        <v>2</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="R142" t="n">
+        <v>2</v>
+      </c>
+      <c r="S142" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X142" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>8280501</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>46068.52083333334</v>
+      </c>
+      <c r="F143" t="n">
+        <v>21</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2</v>
+      </c>
+      <c r="K143" t="n">
+        <v>3</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2</v>
+      </c>
+      <c r="N143" t="n">
+        <v>4</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['19', '74']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['4', '8']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R143" t="n">
+        <v>2</v>
+      </c>
+      <c r="S143" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T143" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V143" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X143" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BL143" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>8280492</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>46068.60416666666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>21</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S144" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V144" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X144" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>8280494</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>46068.66666666666</v>
+      </c>
+      <c r="F145" t="n">
+        <v>21</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>2</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R145" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S145" t="n">
+        <v>9</v>
+      </c>
+      <c r="T145" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V145" t="n">
+        <v>3</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X145" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BP145" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AR15" t="n">
         <v>2.26</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.27</v>
@@ -7023,7 +7023,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AR30" t="n">
         <v>1.86</v>
@@ -8110,7 +8110,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ35" t="n">
         <v>1</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.6</v>
@@ -10729,7 +10729,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AR47" t="n">
         <v>1.32</v>
@@ -13124,7 +13124,7 @@
         <v>1.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ58" t="n">
         <v>1</v>
@@ -15089,7 +15089,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AR67" t="n">
         <v>1.73</v>
@@ -15522,7 +15522,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.09</v>
@@ -17705,7 +17705,7 @@
         <v>1</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AR79" t="n">
         <v>1.15</v>
@@ -18356,7 +18356,7 @@
         <v>0.17</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.45</v>
@@ -20757,7 +20757,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AR93" t="n">
         <v>0.86</v>
@@ -21408,7 +21408,7 @@
         <v>2.17</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.89</v>
@@ -24024,7 +24024,7 @@
         <v>2</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ108" t="n">
         <v>2</v>
@@ -24899,7 +24899,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AR112" t="n">
         <v>1.45</v>
@@ -26861,7 +26861,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AR121" t="n">
         <v>1.25</v>
@@ -27512,7 +27512,7 @@
         <v>1</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.2</v>
@@ -27948,7 +27948,7 @@
         <v>0.75</v>
       </c>
       <c r="AP126" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ126" t="n">
         <v>1</v>
@@ -28823,7 +28823,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AR130" t="n">
         <v>1.97</v>
@@ -32168,6 +32168,224 @@
         <v>3.92</v>
       </c>
       <c r="BP145" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>8280450</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>46069.54166666666</v>
+      </c>
+      <c r="F146" t="n">
+        <v>21</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2</v>
+      </c>
+      <c r="L146" t="n">
+        <v>2</v>
+      </c>
+      <c r="M146" t="n">
+        <v>2</v>
+      </c>
+      <c r="N146" t="n">
+        <v>4</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['27', '87']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['31', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S146" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V146" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X146" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BL146" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP146" t="n">
         <v>1.19</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -31457,13 +31457,13 @@
         <v>1</v>
       </c>
       <c r="AW142" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX142" t="n">
         <v>3</v>
       </c>
       <c r="AY142" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ142" t="n">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.45</v>
@@ -1355,7 +1355,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR10" t="n">
         <v>1.51</v>
@@ -3317,7 +3317,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR13" t="n">
         <v>2.22</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.18</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ18" t="n">
         <v>1</v>
@@ -5497,7 +5497,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR23" t="n">
         <v>1.27</v>
@@ -5933,7 +5933,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR25" t="n">
         <v>2.39</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.6</v>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.89</v>
@@ -9203,7 +9203,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR40" t="n">
         <v>1.58</v>
@@ -9639,7 +9639,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR42" t="n">
         <v>1.28</v>
@@ -10508,7 +10508,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ46" t="n">
         <v>1</v>
@@ -11383,7 +11383,7 @@
         <v>1</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR50" t="n">
         <v>1.18</v>
@@ -11819,7 +11819,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR52" t="n">
         <v>0.92</v>
@@ -12688,7 +12688,7 @@
         <v>2.33</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.18</v>
@@ -13342,7 +13342,7 @@
         <v>1.75</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.27</v>
@@ -13999,7 +13999,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR62" t="n">
         <v>1.82</v>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ63" t="n">
         <v>1</v>
@@ -15958,10 +15958,10 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR71" t="n">
         <v>1.41</v>
@@ -16176,10 +16176,10 @@
         <v>1.4</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR72" t="n">
         <v>2.15</v>
@@ -19010,7 +19010,7 @@
         <v>1.2</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ85" t="n">
         <v>1</v>
@@ -19446,7 +19446,7 @@
         <v>1.6</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.6</v>
@@ -20103,7 +20103,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR90" t="n">
         <v>2</v>
@@ -20321,7 +20321,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR91" t="n">
         <v>1.02</v>
@@ -22062,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.27</v>
@@ -22283,7 +22283,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR100" t="n">
         <v>1.39</v>
@@ -22498,7 +22498,7 @@
         <v>1.29</v>
       </c>
       <c r="AP101" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ101" t="n">
         <v>1</v>
@@ -22719,7 +22719,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR102" t="n">
         <v>1.34</v>
@@ -26207,7 +26207,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR118" t="n">
         <v>1.33</v>
@@ -26422,7 +26422,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.09</v>
@@ -26640,7 +26640,7 @@
         <v>2.13</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ120" t="n">
         <v>2.18</v>
@@ -27297,7 +27297,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR123" t="n">
         <v>1.02</v>
@@ -29256,7 +29256,7 @@
         <v>2</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ132" t="n">
         <v>2</v>
@@ -29477,7 +29477,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR133" t="n">
         <v>1.33</v>
@@ -29692,7 +29692,7 @@
         <v>1.2</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.09</v>
@@ -29913,7 +29913,7 @@
         <v>1</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR135" t="n">
         <v>1.53</v>
@@ -30782,7 +30782,7 @@
         <v>1</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.2</v>
@@ -32387,6 +32387,442 @@
       </c>
       <c r="BP146" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>8280570</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>46074.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>22</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>2</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>2</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['37', '89']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R147" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S147" t="n">
+        <v>12</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U147" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V147" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X147" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>31</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN147" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO147" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BP147" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>8280559</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>46074.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>22</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="n">
+        <v>2</v>
+      </c>
+      <c r="N148" t="n">
+        <v>3</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['27', '41']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S148" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V148" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X148" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BL148" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP148"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.18</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ9" t="n">
         <v>1</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.09</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.45</v>
@@ -3535,7 +3535,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
         <v>1</v>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.55</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ26" t="n">
         <v>2.18</v>
@@ -6805,7 +6805,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR29" t="n">
         <v>2.89</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.18</v>
@@ -7238,10 +7238,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR31" t="n">
         <v>2.21</v>
@@ -7456,7 +7456,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ32" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR33" t="n">
         <v>1.1</v>
@@ -7895,7 +7895,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR34" t="n">
         <v>0.9</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.45</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.27</v>
@@ -8764,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR38" t="n">
         <v>1.37</v>
@@ -9854,7 +9854,7 @@
         <v>1.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ43" t="n">
         <v>2</v>
@@ -10075,7 +10075,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR44" t="n">
         <v>1.23</v>
@@ -10944,10 +10944,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR48" t="n">
         <v>2.01</v>
@@ -11162,10 +11162,10 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR49" t="n">
         <v>1.96</v>
@@ -11598,7 +11598,7 @@
         <v>0.67</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ51" t="n">
         <v>1</v>
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.55</v>
@@ -12473,7 +12473,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR55" t="n">
         <v>2.22</v>
@@ -12909,7 +12909,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR57" t="n">
         <v>1.32</v>
@@ -13560,10 +13560,10 @@
         <v>0.67</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR60" t="n">
         <v>1.21</v>
@@ -13778,10 +13778,10 @@
         <v>2.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR61" t="n">
         <v>1.12</v>
@@ -13996,7 +13996,7 @@
         <v>1.25</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.09</v>
@@ -14650,7 +14650,7 @@
         <v>0</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.45</v>
@@ -15304,7 +15304,7 @@
         <v>1.75</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ68" t="n">
         <v>2.18</v>
@@ -15525,7 +15525,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR69" t="n">
         <v>1.29</v>
@@ -15743,7 +15743,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR70" t="n">
         <v>1.72</v>
@@ -16394,10 +16394,10 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR73" t="n">
         <v>1.03</v>
@@ -16830,7 +16830,7 @@
         <v>1.4</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.27</v>
@@ -17051,7 +17051,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR76" t="n">
         <v>1.1</v>
@@ -17266,7 +17266,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ77" t="n">
         <v>1</v>
@@ -17484,10 +17484,10 @@
         <v>1.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR78" t="n">
         <v>0.9399999999999999</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ80" t="n">
         <v>1</v>
@@ -18577,7 +18577,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR83" t="n">
         <v>1.78</v>
@@ -19449,7 +19449,7 @@
         <v>1</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR87" t="n">
         <v>1.3</v>
@@ -19664,10 +19664,10 @@
         <v>1.4</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR88" t="n">
         <v>1.39</v>
@@ -20100,7 +20100,7 @@
         <v>1.17</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.55</v>
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.09</v>
@@ -20754,7 +20754,7 @@
         <v>0.17</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.18</v>
@@ -21411,7 +21411,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR96" t="n">
         <v>1.44</v>
@@ -21626,7 +21626,7 @@
         <v>2.17</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ97" t="n">
         <v>2</v>
@@ -21847,7 +21847,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR98" t="n">
         <v>1.55</v>
@@ -22716,7 +22716,7 @@
         <v>1</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.55</v>
@@ -22937,7 +22937,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR103" t="n">
         <v>2.01</v>
@@ -23152,7 +23152,7 @@
         <v>1</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ104" t="n">
         <v>1</v>
@@ -23370,10 +23370,10 @@
         <v>1.5</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR105" t="n">
         <v>1.05</v>
@@ -23809,7 +23809,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR107" t="n">
         <v>0.88</v>
@@ -24245,7 +24245,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR109" t="n">
         <v>1.74</v>
@@ -24460,7 +24460,7 @@
         <v>0.63</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ110" t="n">
         <v>0.45</v>
@@ -24678,7 +24678,7 @@
         <v>2.29</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ111" t="n">
         <v>2.18</v>
@@ -25114,7 +25114,7 @@
         <v>1.25</v>
       </c>
       <c r="AP113" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ113" t="n">
         <v>1</v>
@@ -25332,7 +25332,7 @@
         <v>1.25</v>
       </c>
       <c r="AP114" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.27</v>
@@ -25768,10 +25768,10 @@
         <v>1.14</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR116" t="n">
         <v>1.99</v>
@@ -25989,7 +25989,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR117" t="n">
         <v>0.82</v>
@@ -26425,7 +26425,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR119" t="n">
         <v>2.46</v>
@@ -26858,7 +26858,7 @@
         <v>0.13</v>
       </c>
       <c r="AP121" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.18</v>
@@ -27076,10 +27076,10 @@
         <v>1.88</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR122" t="n">
         <v>1.54</v>
@@ -27294,7 +27294,7 @@
         <v>1.13</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.09</v>
@@ -27515,7 +27515,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR124" t="n">
         <v>1.25</v>
@@ -29038,7 +29038,7 @@
         <v>2.13</v>
       </c>
       <c r="AP131" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ131" t="n">
         <v>2</v>
@@ -29474,7 +29474,7 @@
         <v>1</v>
       </c>
       <c r="AP133" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.09</v>
@@ -29695,7 +29695,7 @@
         <v>1</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR134" t="n">
         <v>1.14</v>
@@ -30128,7 +30128,7 @@
         <v>2.22</v>
       </c>
       <c r="AP136" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ136" t="n">
         <v>2.18</v>
@@ -30346,10 +30346,10 @@
         <v>1.78</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR137" t="n">
         <v>1.08</v>
@@ -30564,10 +30564,10 @@
         <v>2</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR138" t="n">
         <v>1.58</v>
@@ -30785,7 +30785,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR139" t="n">
         <v>2.39</v>
@@ -32823,6 +32823,1096 @@
       </c>
       <c r="BP148" t="n">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>8280540</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>46075.45833333334</v>
+      </c>
+      <c r="F149" t="n">
+        <v>22</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>2</v>
+      </c>
+      <c r="L149" t="n">
+        <v>2</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>3</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['19', '55']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S149" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="V149" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X149" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BL149" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BN149" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO149" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BP149" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>8280497</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>46075.45833333334</v>
+      </c>
+      <c r="F150" t="n">
+        <v>22</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>2</v>
+      </c>
+      <c r="N150" t="n">
+        <v>2</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['6', '90+8']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="R150" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V150" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X150" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BL150" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BN150" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO150" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP150" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>8280435</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>46075.54166666666</v>
+      </c>
+      <c r="F151" t="n">
+        <v>22</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="n">
+        <v>2</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="R151" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S151" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="V151" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X151" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BL151" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BN151" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO151" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="BP151" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>8280514</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>46075.58333333334</v>
+      </c>
+      <c r="F152" t="n">
+        <v>22</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="n">
+        <v>2</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R152" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S152" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V152" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X152" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BL152" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM152" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BN152" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO152" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BP152" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>8280528</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>46075.625</v>
+      </c>
+      <c r="F153" t="n">
+        <v>22</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>4</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>4</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['5', '49', '59', '68']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S153" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T153" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U153" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="V153" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X153" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BL153" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM153" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BN153" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO153" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BP153" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -33419,13 +33419,13 @@
         <v>1</v>
       </c>
       <c r="AW151" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX151" t="n">
         <v>9</v>
       </c>
       <c r="AY151" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ151" t="n">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Greece Super League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1791,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR10" t="n">
         <v>1.51</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.27</v>
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.8</v>
@@ -5933,7 +5933,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR25" t="n">
         <v>2.39</v>
@@ -7456,7 +7456,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32" t="n">
         <v>1</v>
@@ -8110,10 +8110,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR35" t="n">
         <v>0.93</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.27</v>
@@ -9203,7 +9203,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR40" t="n">
         <v>1.58</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.45</v>
@@ -11383,7 +11383,7 @@
         <v>1</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR50" t="n">
         <v>1.18</v>
@@ -11601,7 +11601,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR51" t="n">
         <v>1.2</v>
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.55</v>
@@ -13124,7 +13124,7 @@
         <v>1.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ58" t="n">
         <v>1</v>
@@ -13999,7 +13999,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR62" t="n">
         <v>1.82</v>
@@ -14435,7 +14435,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR64" t="n">
         <v>0.92</v>
@@ -15304,7 +15304,7 @@
         <v>1.75</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68" t="n">
         <v>2.18</v>
@@ -15522,7 +15522,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ69" t="n">
         <v>1</v>
@@ -15961,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR71" t="n">
         <v>1.41</v>
@@ -17484,7 +17484,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78" t="n">
         <v>1</v>
@@ -17923,7 +17923,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR80" t="n">
         <v>1.62</v>
@@ -18356,7 +18356,7 @@
         <v>0.17</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.45</v>
@@ -20321,7 +20321,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR91" t="n">
         <v>1.02</v>
@@ -20539,7 +20539,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR92" t="n">
         <v>1.71</v>
@@ -20754,7 +20754,7 @@
         <v>0.17</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.18</v>
@@ -21408,7 +21408,7 @@
         <v>2.17</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.8</v>
@@ -22283,7 +22283,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR100" t="n">
         <v>1.39</v>
@@ -23591,7 +23591,7 @@
         <v>1</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR106" t="n">
         <v>1.42</v>
@@ -24024,7 +24024,7 @@
         <v>2</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ108" t="n">
         <v>2</v>
@@ -24460,7 +24460,7 @@
         <v>0.63</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110" t="n">
         <v>0.45</v>
@@ -27294,10 +27294,10 @@
         <v>1.13</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR123" t="n">
         <v>1.02</v>
@@ -27512,7 +27512,7 @@
         <v>1</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.36</v>
@@ -27948,7 +27948,7 @@
         <v>0.75</v>
       </c>
       <c r="AP126" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ126" t="n">
         <v>1</v>
@@ -28169,7 +28169,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR127" t="n">
         <v>1.25</v>
@@ -29477,7 +29477,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR133" t="n">
         <v>1.33</v>
@@ -30346,7 +30346,7 @@
         <v>1.78</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.45</v>
@@ -32093,7 +32093,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR145" t="n">
         <v>1.64</v>
@@ -32308,7 +32308,7 @@
         <v>0.1</v>
       </c>
       <c r="AP146" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.18</v>
@@ -32529,7 +32529,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR147" t="n">
         <v>2.32</v>
@@ -33180,7 +33180,7 @@
         <v>1.2</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.36</v>
@@ -33913,6 +33913,442 @@
       </c>
       <c r="BP153" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>8280498</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>46081.5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>23</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>2</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>2</v>
+      </c>
+      <c r="L154" t="n">
+        <v>3</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>3</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['3', '7', '56']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="R154" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S154" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X154" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BL154" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BN154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO154" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BP154" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>8280556</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>46081.60416666666</v>
+      </c>
+      <c r="F155" t="n">
+        <v>23</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S155" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V155" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X155" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BL155" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>
